--- a/lab6/sprawozdanie/philosophers_both_forks.xlsx
+++ b/lab6/sprawozdanie/philosophers_both_forks.xlsx
@@ -596,24 +596,24 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>philosophers_both_forks!$A$2:$E$2</c:f>
+              <c:f>philosophers_both_forks!$A$1:$E$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2.5099999999999998</c:v>
+                  <c:v>5617</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.04</c:v>
+                  <c:v>5343</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17.82</c:v>
+                  <c:v>4589</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.98</c:v>
+                  <c:v>4677</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.83</c:v>
+                  <c:v>5525</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -629,11 +629,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="110"/>
-        <c:axId val="196289024"/>
-        <c:axId val="152134208"/>
+        <c:axId val="185147904"/>
+        <c:axId val="162423360"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="196289024"/>
+        <c:axId val="185147904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -661,7 +661,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="152134208"/>
+        <c:crossAx val="162423360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -669,7 +669,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="152134208"/>
+        <c:axId val="162423360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -687,7 +687,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="pl-PL"/>
-                  <a:t>czas (us)</a:t>
+                  <a:t>czas (ms)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -699,7 +699,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="196289024"/>
+        <c:crossAx val="185147904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -722,13 +722,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>148590</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>289560</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1038,51 +1038,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1">
-        <v>2510</v>
+        <v>5617</v>
       </c>
       <c r="B1">
-        <v>6040</v>
+        <v>5343</v>
       </c>
       <c r="C1">
-        <v>17820</v>
+        <v>4589</v>
       </c>
       <c r="D1">
-        <v>2980</v>
+        <v>4677</v>
       </c>
       <c r="E1">
-        <v>7830</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <f>A1/1000</f>
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="B2">
-        <f t="shared" ref="B2:E2" si="0">B1/1000</f>
-        <v>6.04</v>
-      </c>
-      <c r="C2">
-        <f t="shared" si="0"/>
-        <v>17.82</v>
-      </c>
-      <c r="D2">
-        <f t="shared" si="0"/>
-        <v>2.98</v>
-      </c>
-      <c r="E2">
-        <f t="shared" si="0"/>
-        <v>7.83</v>
+        <v>5525</v>
       </c>
     </row>
   </sheetData>
